--- a/data/ranking_csv.xlsx
+++ b/data/ranking_csv.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/659ba2991ee3cc81/Documentos/GitHub/ranking-lp1-2023.1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{98EA7C37-BD08-40A5-A3C4-35D904AE2BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:40009_{98EA7C37-BD08-40A5-A3C4-35D904AE2BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DDF3FDF-116D-49FD-920C-84F8E073A17B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking_csv" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ranking_csv!$A$1:$U$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -259,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,17 +779,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -833,6 +849,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1131,11 +1151,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1220,7 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="T1" t="s">
@@ -1214,20 +1234,20 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1249,7 +1269,7 @@
       </c>
       <c r="M2">
         <f>SUM(E2:K2) -L2</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1280,20 +1300,20 @@
       <c r="A3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1315,7 +1335,7 @@
       </c>
       <c r="M3">
         <f>SUM(E3:K3) -L3</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1336,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -1346,10 +1366,10 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D4">
@@ -1359,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1381,7 +1401,7 @@
       </c>
       <c r="M4">
         <f>SUM(E4:K4) -L4</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1412,10 +1432,10 @@
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D5">
@@ -1425,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1443,11 +1463,11 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <f>SUM(E5:K5) -L5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1468,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U5">
         <v>4</v>
@@ -1478,10 +1498,10 @@
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D6">
@@ -1491,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1509,11 +1529,11 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <f>SUM(E6:K6) -L6</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1534,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>5</v>
@@ -1544,10 +1564,10 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D7">
@@ -1557,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1579,7 +1599,7 @@
       </c>
       <c r="M7">
         <f>SUM(E7:K7) -L7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1600,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U7">
         <v>6</v>
@@ -1608,25 +1628,25 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1645,7 +1665,7 @@
       </c>
       <c r="M8">
         <f>SUM(E8:K8) -L8</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1666,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="U8">
         <v>7</v>
@@ -1674,13 +1694,13 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1689,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1711,7 +1731,7 @@
       </c>
       <c r="M9">
         <f>SUM(E9:K9) -L9</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1732,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U9">
         <v>8</v>
@@ -1740,25 +1760,25 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1777,7 +1797,7 @@
       </c>
       <c r="M10">
         <f>SUM(E10:K10) -L10</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1798,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U10">
         <v>9</v>
@@ -1808,10 +1828,10 @@
       <c r="A11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D11">
@@ -1821,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1843,7 +1863,7 @@
       </c>
       <c r="M11">
         <f>SUM(E11:K11) -L11</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1864,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="U11">
         <v>10</v>
@@ -1872,22 +1892,22 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1909,7 +1929,7 @@
       </c>
       <c r="M12">
         <f>SUM(E12:K12) -L12</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1930,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="U12">
         <v>11</v>
@@ -1938,16 +1958,16 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1971,11 +1991,11 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13">
         <f>SUM(E13:K13) -L13</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1996,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="U13">
         <v>12</v>
@@ -2004,13 +2024,13 @@
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2019,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2041,7 +2061,7 @@
       </c>
       <c r="M14">
         <f>SUM(E14:K14) -L14</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2062,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="U14">
         <v>13</v>
@@ -2070,22 +2090,22 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2107,7 +2127,7 @@
       </c>
       <c r="M15">
         <f>SUM(E15:K15) -L15</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2138,11 +2158,11 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2169,11 +2189,11 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16">
         <f>SUM(E16:K16) -L16</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2194,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U16">
         <v>15</v>
@@ -2202,22 +2222,22 @@
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2239,7 +2259,7 @@
       </c>
       <c r="M17">
         <f>SUM(E17:K17) -L17</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2268,22 +2288,22 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2305,7 +2325,7 @@
       </c>
       <c r="M18">
         <f>SUM(E18:K18) -L18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2349,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2371,7 +2391,7 @@
       </c>
       <c r="M19">
         <f>SUM(E19:K19) -L19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2392,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="U19">
         <v>18</v>
@@ -2433,11 +2453,11 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <f>SUM(E20:K20) -L20</f>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2458,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U20">
         <v>19</v>
@@ -2481,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2499,11 +2519,11 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
         <f>SUM(E21:K21) -L21</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2524,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="U21">
         <v>20</v>
@@ -2565,11 +2585,11 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M22">
         <f>SUM(E22:K22) -L22</f>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2590,16 +2610,16 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="U22">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U1">
+  <autoFilter ref="A1:U1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U22">
-      <sortCondition descending="1" ref="M1"/>
+      <sortCondition ref="U1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/ranking_csv.xlsx
+++ b/data/ranking_csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/659ba2991ee3cc81/Documentos/GitHub/ranking-lp1-2023.1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisaraujo/Documents/GitHub/ranking-lp1-2023.1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:40009_{98EA7C37-BD08-40A5-A3C4-35D904AE2BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DDF3FDF-116D-49FD-920C-84F8E073A17B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F32E92A-CBE5-3A43-BCEA-29333304D287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking_csv" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -793,6 +793,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -849,10 +850,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1152,20 +1149,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.5" customWidth="1"/>
+    <col min="12" max="12" width="8.5" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1189,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1230,28 +1235,28 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
         <v>4</v>
       </c>
+      <c r="F2" s="7">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>4</v>
+      </c>
       <c r="H2">
         <v>0</v>
       </c>
@@ -1265,11 +1270,11 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <f>SUM(E2:K2) -L2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1296,27 +1301,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1335,7 +1340,7 @@
       </c>
       <c r="M3">
         <f>SUM(E3:K3) -L3</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1356,32 +1361,32 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
         <v>0</v>
       </c>
       <c r="H4">
@@ -1397,11 +1402,11 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <f>SUM(E4:K4) -L4</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1428,15 +1433,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1444,11 +1449,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1457,17 +1462,17 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <f>SUM(E5:K5) -L5</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1488,32 +1493,32 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="U5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
         <v>1</v>
       </c>
       <c r="H6">
@@ -1529,11 +1534,11 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
         <f>SUM(E6:K6) -L6</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1554,13 +1559,13 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1574,32 +1579,32 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>3</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
       </c>
       <c r="M7">
         <f>SUM(E7:K7) -L7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1626,46 +1631,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
       </c>
       <c r="M8">
         <f>SUM(E8:K8) -L8</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1686,33 +1691,33 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="U8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
         <v>3</v>
       </c>
-      <c r="G9">
-        <v>1</v>
+      <c r="G9" s="7">
+        <v>4</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1727,11 +1732,11 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <f>SUM(E9:K9) -L9</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1752,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1774,11 +1779,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1797,7 +1802,7 @@
       </c>
       <c r="M10">
         <f>SUM(E10:K10) -L10</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1818,33 +1823,33 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="U10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11">
-        <v>1</v>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1859,11 +1864,11 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11">
         <f>SUM(E11:K11) -L11</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1884,33 +1889,33 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1925,11 +1930,11 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12">
         <f>SUM(E12:K12) -L12</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1950,32 +1955,32 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7">
         <v>0</v>
       </c>
       <c r="H13">
@@ -1995,7 +2000,7 @@
       </c>
       <c r="M13">
         <f>SUM(E13:K13) -L13</f>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2016,33 +2021,33 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2051,17 +2056,17 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M14">
         <f>SUM(E14:K14) -L14</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2082,39 +2087,39 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>3</v>
       </c>
-      <c r="G15">
-        <v>0</v>
+      <c r="G15" s="7">
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2123,11 +2128,11 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M15">
         <f>SUM(E15:K15) -L15</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2148,33 +2153,33 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
+      <c r="F16" s="7">
+        <v>4</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2189,11 +2194,11 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <f>SUM(E16:K16) -L16</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2214,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2236,10 +2241,10 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>3</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>0</v>
       </c>
       <c r="H17">
@@ -2255,11 +2260,11 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M17">
         <f>SUM(E17:K17) -L17</f>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2286,27 +2291,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2321,11 +2326,11 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M18">
         <f>SUM(E18:K18) -L18</f>
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2346,32 +2351,32 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
         <v>0</v>
       </c>
       <c r="H19">
@@ -2387,11 +2392,11 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M19">
         <f>SUM(E19:K19) -L19</f>
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2412,32 +2417,32 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
         <v>0</v>
       </c>
       <c r="H20">
@@ -2447,17 +2452,17 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M20">
         <f>SUM(E20:K20) -L20</f>
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2478,21 +2483,21 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="U20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2500,11 +2505,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2519,11 +2524,11 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M21">
         <f>SUM(E21:K21) -L21</f>
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2544,21 +2549,21 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2566,10 +2571,10 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
         <v>0</v>
       </c>
       <c r="H22">
@@ -2579,17 +2584,17 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M22">
         <f>SUM(E22:K22) -L22</f>
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2610,16 +2615,22 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U22">
         <v>21</v>
       </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U22">
-      <sortCondition ref="U1"/>
+      <sortCondition descending="1" ref="M1:M22"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/ranking_csv.xlsx
+++ b/data/ranking_csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisaraujo/Documents/GitHub/ranking-lp1-2023.1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F32E92A-CBE5-3A43-BCEA-29333304D287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A2A418-918C-BE45-914E-B5C1B1436A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking_csv" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>AVATAR</t>
   </si>
@@ -183,12 +183,6 @@
   </si>
   <si>
     <t>johncena</t>
-  </si>
-  <si>
-    <t>Rafaela Rodrigues Santos Souza</t>
-  </si>
-  <si>
-    <t>Student97</t>
   </si>
   <si>
     <t>da.jpg</t>
@@ -423,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,6 +595,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -779,7 +785,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -789,11 +795,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1149,25 +1169,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1"/>
-    <col min="11" max="11" width="21.5" customWidth="1"/>
-    <col min="12" max="12" width="8.5" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" customWidth="1"/>
+    <col min="12" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -1189,7 +1211,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1229,32 +1251,32 @@
         <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7">
         <v>5</v>
       </c>
-      <c r="G2" s="7">
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
       <c r="H2">
@@ -1274,7 +1296,7 @@
       </c>
       <c r="M2">
         <f>SUM(E2:K2) -L2</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1305,10 +1327,10 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D3">
@@ -1317,10 +1339,10 @@
       <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3" s="7">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
@@ -1340,7 +1362,7 @@
       </c>
       <c r="M3">
         <f>SUM(E3:K3) -L3</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1361,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -1371,10 +1393,10 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D4">
@@ -1383,10 +1405,10 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
@@ -1435,25 +1457,25 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1462,17 +1484,17 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <f>SUM(E5:K5) -L5</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1493,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="U5">
         <v>4</v>
@@ -1503,10 +1525,10 @@
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D6">
@@ -1515,10 +1537,10 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
@@ -1559,48 +1581,48 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>4</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <f>SUM(E7:K7) -L7</f>
@@ -1625,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U7">
         <v>6</v>
@@ -1633,13 +1655,13 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1647,17 +1669,17 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1666,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f>SUM(E8:K8) -L8</f>
@@ -1691,21 +1713,21 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="U8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1713,11 +1735,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
-        <v>3</v>
-      </c>
-      <c r="G9" s="7">
-        <v>4</v>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1732,11 +1754,11 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <f>SUM(E9:K9) -L9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1757,33 +1779,33 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="U9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1798,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10">
         <f>SUM(E10:K10) -L10</f>
@@ -1823,33 +1845,33 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="U10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="F11" s="7">
-        <v>3</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
+      <c r="G11">
+        <v>4</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1864,11 +1886,11 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M11">
         <f>SUM(E11:K11) -L11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1889,33 +1911,33 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>4</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1930,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <f>SUM(E12:K12) -L12</f>
@@ -1955,21 +1977,21 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1977,10 +1999,10 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
@@ -1996,11 +2018,11 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <f>SUM(E13:K13) -L13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2021,20 +2043,20 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D14">
@@ -2043,10 +2065,10 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
@@ -2062,11 +2084,11 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M14">
         <f>SUM(E14:K14) -L14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2087,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="U14">
         <v>13</v>
@@ -2095,13 +2117,13 @@
     </row>
     <row r="15" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2109,10 +2131,10 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
@@ -2128,11 +2150,11 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15">
         <f>SUM(E15:K15) -L15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2153,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U15">
         <v>14</v>
@@ -2161,25 +2183,25 @@
     </row>
     <row r="16" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>4</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2194,11 +2216,11 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M16">
         <f>SUM(E16:K16) -L16</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2219,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="U16">
         <v>15</v>
@@ -2227,25 +2249,25 @@
     </row>
     <row r="17" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>3</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2260,11 +2282,11 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M17">
         <f>SUM(E17:K17) -L17</f>
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2285,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U17">
         <v>16</v>
@@ -2293,25 +2315,25 @@
     </row>
     <row r="18" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2326,11 +2348,11 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M18">
         <f>SUM(E18:K18) -L18</f>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2351,32 +2373,32 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
@@ -2396,7 +2418,7 @@
       </c>
       <c r="M19">
         <f>SUM(E19:K19) -L19</f>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2417,21 +2439,21 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2439,10 +2461,10 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
@@ -2483,32 +2505,32 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="U20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
@@ -2518,17 +2540,17 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M21">
         <f>SUM(E21:K21) -L21</f>
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2549,88 +2571,16 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="U21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>12</v>
-      </c>
-      <c r="M22">
-        <f>SUM(E22:K22) -L22</f>
-        <v>-11</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>19</v>
-      </c>
-      <c r="U22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U22">
-      <sortCondition descending="1" ref="M1:M22"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U21">
+      <sortCondition descending="1" ref="M1:M21"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/ranking_csv.xlsx
+++ b/data/ranking_csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisaraujo/Documents/GitHub/ranking-lp1-2023.1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A2A418-918C-BE45-914E-B5C1B1436A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEDEDE8-1362-5443-9E8F-32791D0A615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
